--- a/data/eredivisie_event_metrics_merged_final.xlsx
+++ b/data/eredivisie_event_metrics_merged_final.xlsx
@@ -2504,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.457218654453754</v>
+        <v>1.524846933782101</v>
       </c>
       <c r="C3">
         <v>0.6822966691106558</v>
@@ -2554,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.3084589131176471</v>
+        <v>0.3954232893884181</v>
       </c>
       <c r="C4">
         <v>0.1078384146094322</v>
@@ -2957,7 +2957,7 @@
         <v>0.0823296289891005</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.05366325750947</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>3.645605955272912</v>
       </c>
       <c r="C21">
-        <v>0.3988886848092076</v>
+        <v>0.4318605475127695</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -3754,7 +3754,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0.4630405344069004</v>
+        <v>0.6294473968446255</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0.1573520414531231</v>
       </c>
       <c r="C29">
-        <v>0.4411029256880284</v>
+        <v>0.4831963069736958</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.896324712783098</v>
+        <v>2.051377568393946</v>
       </c>
       <c r="C30">
         <v>0.988416783511639</v>
@@ -4351,7 +4351,7 @@
         <v>53</v>
       </c>
       <c r="B40">
-        <v>1.217861760407686</v>
+        <v>1.201765660196543</v>
       </c>
       <c r="C40">
         <v>2.333526600152254</v>
@@ -4601,7 +4601,7 @@
         <v>58</v>
       </c>
       <c r="B45">
-        <v>1.737981786951422</v>
+        <v>1.743128573521972</v>
       </c>
       <c r="C45">
         <v>0.7203313037753103</v>
@@ -4851,10 +4851,10 @@
         <v>63</v>
       </c>
       <c r="B50">
-        <v>0.2991088330745693</v>
+        <v>0.3325325213372703</v>
       </c>
       <c r="C50">
-        <v>0.5726673118770129</v>
+        <v>0.6784640811383731</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>4.049981260597706</v>
       </c>
       <c r="C54">
-        <v>2.670474078506231</v>
+        <v>2.670967701822519</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -5101,7 +5101,7 @@
         <v>68</v>
       </c>
       <c r="B55">
-        <v>0.8844384215772151</v>
+        <v>0.9701417572796344</v>
       </c>
       <c r="C55">
         <v>1.532949317246675</v>
@@ -5151,7 +5151,7 @@
         <v>69</v>
       </c>
       <c r="B56">
-        <v>1.231726098805666</v>
+        <v>1.33279475197196</v>
       </c>
       <c r="C56">
         <v>0.1511745527386665</v>
@@ -5451,10 +5451,10 @@
         <v>75</v>
       </c>
       <c r="B62">
-        <v>2.711951456964016</v>
+        <v>2.6792696043849</v>
       </c>
       <c r="C62">
-        <v>1.977179732173682</v>
+        <v>1.991519507020713</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -5589,7 +5589,7 @@
         <v>78</v>
       </c>
       <c r="B65">
-        <v>1.800583906471729</v>
+        <v>1.862567190080881</v>
       </c>
       <c r="C65">
         <v>0.2388553842902183</v>
@@ -6139,7 +6139,7 @@
         <v>89</v>
       </c>
       <c r="B76">
-        <v>7.656771042346953</v>
+        <v>7.702211447954177</v>
       </c>
       <c r="C76">
         <v>0.5866052992641924</v>
@@ -6292,7 +6292,7 @@
         <v>3.560873605310916</v>
       </c>
       <c r="C79">
-        <v>1.209813252091408</v>
+        <v>1.328994292765856</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -6389,7 +6389,7 @@
         <v>94</v>
       </c>
       <c r="B81">
-        <v>0.7829776667058468</v>
+        <v>0.8997501917183399</v>
       </c>
       <c r="C81">
         <v>0.9483088813722134</v>
@@ -6439,10 +6439,10 @@
         <v>95</v>
       </c>
       <c r="B82">
-        <v>1.837654814124108</v>
+        <v>2.017357982695104</v>
       </c>
       <c r="C82">
-        <v>0.1439186781644821</v>
+        <v>0.1996461525559425</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -6489,10 +6489,10 @@
         <v>96</v>
       </c>
       <c r="B83">
-        <v>0.9777884632349014</v>
+        <v>1.022680729627609</v>
       </c>
       <c r="C83">
-        <v>4.916796844452623</v>
+        <v>5.201868083328011</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -6539,7 +6539,7 @@
         <v>97</v>
       </c>
       <c r="B84">
-        <v>1.554118528962135</v>
+        <v>1.610054861754179</v>
       </c>
       <c r="C84">
         <v>0.101068653166294</v>
@@ -6589,7 +6589,7 @@
         <v>98</v>
       </c>
       <c r="B85">
-        <v>5.326380357146266</v>
+        <v>5.383438840508463</v>
       </c>
       <c r="C85">
         <v>1.858091220259667</v>
@@ -6639,10 +6639,10 @@
         <v>99</v>
       </c>
       <c r="B86">
-        <v>0.5610611457377671</v>
+        <v>0.6553821954876182</v>
       </c>
       <c r="C86">
-        <v>2.408710459247231</v>
+        <v>2.568696500733495</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>1.959978885948659</v>
       </c>
       <c r="C87">
-        <v>0.2069441452622414</v>
+        <v>0.2483671493828297</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>101</v>
       </c>
       <c r="B88">
-        <v>0.4737870283424854</v>
+        <v>0.483485534787178</v>
       </c>
       <c r="C88">
         <v>0.104900136590004</v>
@@ -6927,10 +6927,10 @@
         <v>105</v>
       </c>
       <c r="B92">
-        <v>2.670801870524883</v>
+        <v>3.195240847766398</v>
       </c>
       <c r="C92">
-        <v>2.087699107825757</v>
+        <v>2.883814878761769</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -7080,7 +7080,7 @@
         <v>5.503633886575699</v>
       </c>
       <c r="C95">
-        <v>1.499913726001978</v>
+        <v>1.833766046911478</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -7127,7 +7127,7 @@
         <v>109</v>
       </c>
       <c r="B96">
-        <v>2.001411819830537</v>
+        <v>2.087115155532957</v>
       </c>
       <c r="C96">
         <v>2.040594786405563</v>
@@ -7227,10 +7227,10 @@
         <v>111</v>
       </c>
       <c r="B98">
-        <v>3.455496300011873</v>
+        <v>3.455309923738241</v>
       </c>
       <c r="C98">
-        <v>3.239393461495639</v>
+        <v>3.206711608916522</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -7277,10 +7277,10 @@
         <v>112</v>
       </c>
       <c r="B99">
-        <v>1.726433502510191</v>
+        <v>1.727649364620448</v>
       </c>
       <c r="C99">
-        <v>1.039192318916321</v>
+        <v>1.039005942642689</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -7327,10 +7327,10 @@
         <v>113</v>
       </c>
       <c r="B100">
-        <v>1.332430351525545</v>
+        <v>1.398676995187998</v>
       </c>
       <c r="C100">
-        <v>1.692430851981044</v>
+        <v>2.246024532243609</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -7380,7 +7380,7 @@
         <v>6.7765916146338</v>
       </c>
       <c r="C101">
-        <v>1.512452982366085</v>
+        <v>1.615867771208286</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -7480,7 +7480,7 @@
         <v>1.209832552820444</v>
       </c>
       <c r="C103">
-        <v>2.123607434332371</v>
+        <v>2.229638382792473</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>120</v>
       </c>
       <c r="B107">
-        <v>1.140124090015889</v>
+        <v>1.346699412912131</v>
       </c>
       <c r="C107">
         <v>2.798139974474907</v>
@@ -7877,10 +7877,10 @@
         <v>124</v>
       </c>
       <c r="B111">
-        <v>2.85660708323121</v>
+        <v>3.422446385025978</v>
       </c>
       <c r="C111">
-        <v>1.221491832286119</v>
+        <v>1.316170308738947</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -8227,7 +8227,7 @@
         <v>131</v>
       </c>
       <c r="B118">
-        <v>0.292712807655334</v>
+        <v>0.3821657411754127</v>
       </c>
       <c r="C118">
         <v>0.0413512699306011</v>
@@ -8277,10 +8277,10 @@
         <v>132</v>
       </c>
       <c r="B119">
-        <v>0.472807958722114</v>
+        <v>2.459934444129466</v>
       </c>
       <c r="C119">
-        <v>0.1441458202898503</v>
+        <v>0.3803440593183043</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>134</v>
       </c>
       <c r="B121">
-        <v>0.1369506306946275</v>
+        <v>0.1205974034965038</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         <v>136</v>
       </c>
       <c r="B123">
-        <v>0.3959419578313829</v>
+        <v>0.4001724496483804</v>
       </c>
       <c r="C123">
         <v>1.055980172008276</v>
@@ -8777,10 +8777,10 @@
         <v>142</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>0.3615364469587803</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.08570333570241929</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -9277,10 +9277,10 @@
         <v>152</v>
       </c>
       <c r="B139">
-        <v>0.6692617908120155</v>
+        <v>0.7738065384328365</v>
       </c>
       <c r="C139">
-        <v>0.0806951150298119</v>
+        <v>0.1676594913005829</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -9424,7 +9424,7 @@
         <v>155</v>
       </c>
       <c r="B142">
-        <v>3.13774324953556</v>
+        <v>3.599523939192294</v>
       </c>
       <c r="C142">
         <v>2.433450631797313</v>
@@ -9512,7 +9512,7 @@
         <v>157</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>0.07598550245165821</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -9702,10 +9702,10 @@
         <v>162</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>0.10900591313839</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>0.0303362272679806</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>164</v>
       </c>
       <c r="B151">
-        <v>0.4296755194664</v>
+        <v>0.5574722364544866</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -9854,10 +9854,10 @@
         <v>166</v>
       </c>
       <c r="B153">
-        <v>0.07277509570121771</v>
+        <v>0.1053080633282662</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.4776972122490408</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -10755,7 +10755,7 @@
         <v>186</v>
       </c>
       <c r="B173">
-        <v>1.727410443127155</v>
+        <v>2.022651288658381</v>
       </c>
       <c r="C173">
         <v>1.509294025599957</v>
@@ -10808,7 +10808,7 @@
         <v>0.8443889766931533</v>
       </c>
       <c r="C174">
-        <v>0.9466049186885358</v>
+        <v>0.9893236272037028</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -11505,7 +11505,7 @@
         <v>201</v>
       </c>
       <c r="B188">
-        <v>0.1032973155379295</v>
+        <v>0.1457090452313423</v>
       </c>
       <c r="C188">
         <v>0.2986365295946596</v>
@@ -11555,7 +11555,7 @@
         <v>202</v>
       </c>
       <c r="B189">
-        <v>1.025543704628943</v>
+        <v>0.9715269953012464</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -11655,10 +11655,10 @@
         <v>204</v>
       </c>
       <c r="B191">
-        <v>0.3802663311362264</v>
+        <v>0.461273446679115</v>
       </c>
       <c r="C191">
-        <v>0.1694535836577416</v>
+        <v>0.340644471347332</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>208</v>
       </c>
       <c r="B195">
-        <v>0.5076329782605176</v>
+        <v>0.5612962357699876</v>
       </c>
       <c r="C195">
         <v>0.0826256200671196</v>
@@ -12055,7 +12055,7 @@
         <v>212</v>
       </c>
       <c r="B199">
-        <v>1.366989508271217</v>
+        <v>1.501890920102596</v>
       </c>
       <c r="C199">
         <v>0.230810459703207</v>
@@ -12519,7 +12519,7 @@
         <v>222</v>
       </c>
       <c r="B209">
-        <v>1.387487977743149</v>
+        <v>1.527797274291516</v>
       </c>
       <c r="C209">
         <v>0.875187816098332</v>
@@ -12760,7 +12760,7 @@
         <v>0.7092388235032562</v>
       </c>
       <c r="C214">
-        <v>0.4757783226668839</v>
+        <v>0.6140011958777909</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -12857,7 +12857,7 @@
         <v>229</v>
       </c>
       <c r="B216">
-        <v>0.6574520803987981</v>
+        <v>0.6708953939378264</v>
       </c>
       <c r="C216">
         <v>0.5103594139218327</v>
@@ -13760,7 +13760,7 @@
         <v>0.4281406588852404</v>
       </c>
       <c r="C234">
-        <v>1.528684165328741</v>
+        <v>1.495712302625179</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -14007,10 +14007,10 @@
         <v>252</v>
       </c>
       <c r="B239">
-        <v>4.834621392190457</v>
+        <v>5.046825855970384</v>
       </c>
       <c r="C239">
-        <v>3.112810540944338</v>
+        <v>3.117041032761335</v>
       </c>
       <c r="D239">
         <v>5</v>
@@ -14157,7 +14157,7 @@
         <v>255</v>
       </c>
       <c r="B242">
-        <v>6.073408343791963</v>
+        <v>6.21163121700287</v>
       </c>
       <c r="C242">
         <v>1.32143147662282</v>
@@ -14457,10 +14457,10 @@
         <v>261</v>
       </c>
       <c r="B248">
-        <v>0.2045112811028957</v>
+        <v>0.2546669915318489</v>
       </c>
       <c r="C248">
-        <v>1.032218590378761</v>
+        <v>1.125435769557953</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -14507,7 +14507,7 @@
         <v>262</v>
       </c>
       <c r="B249">
-        <v>1.850096490234136</v>
+        <v>1.907483804970979</v>
       </c>
       <c r="C249">
         <v>2.439866051077842</v>
@@ -14557,10 +14557,10 @@
         <v>263</v>
       </c>
       <c r="B250">
-        <v>0.2892039716243746</v>
+        <v>0.383466646075249</v>
       </c>
       <c r="C250">
-        <v>0.7815990522503863</v>
+        <v>0.8673023879528056</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -14707,10 +14707,10 @@
         <v>266</v>
       </c>
       <c r="B253">
-        <v>1.48983745649457</v>
+        <v>1.495100900530815</v>
       </c>
       <c r="C253">
-        <v>6.197536163032055</v>
+        <v>6.156962767243386</v>
       </c>
       <c r="D253">
         <v>8</v>
@@ -14910,7 +14910,7 @@
         <v>3.137591317296029</v>
       </c>
       <c r="C257">
-        <v>3.97626567259431</v>
+        <v>3.981529116630556</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>0.1235942132771015</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -15295,7 +15295,7 @@
         <v>278</v>
       </c>
       <c r="B265">
-        <v>6.216132206767798</v>
+        <v>6.325983164757492</v>
       </c>
       <c r="C265">
         <v>2.023978743702173</v>
@@ -16009,7 +16009,7 @@
         <v>293</v>
       </c>
       <c r="B280">
-        <v>1.125773031264543</v>
+        <v>1.179087102413177</v>
       </c>
       <c r="C280">
         <v>1.755460210144519</v>
@@ -16059,10 +16059,10 @@
         <v>294</v>
       </c>
       <c r="B281">
-        <v>0.5928886123001574</v>
+        <v>0.6469008736312388</v>
       </c>
       <c r="C281">
-        <v>0.1658775024116039</v>
+        <v>0.3114458210766315</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -16362,7 +16362,7 @@
         <v>2.748249597847461</v>
       </c>
       <c r="C287">
-        <v>1.814062710851432</v>
+        <v>1.819209497421981</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>304</v>
       </c>
       <c r="B291">
-        <v>2.660869330167773</v>
+        <v>2.661362953484061</v>
       </c>
       <c r="C291">
         <v>0.4015429466962814</v>
@@ -16597,7 +16597,7 @@
         <v>305</v>
       </c>
       <c r="B292">
-        <v>4.184854717925192</v>
+        <v>4.216056728735567</v>
       </c>
       <c r="C292">
         <v>1.433904245495795</v>
@@ -16700,7 +16700,7 @@
         <v>1.416879490017891</v>
       </c>
       <c r="C294">
-        <v>1.686125461012126</v>
+        <v>1.728537190705538</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -16747,10 +16747,10 @@
         <v>308</v>
       </c>
       <c r="B295">
-        <v>2.60969902664423</v>
+        <v>2.882728599905968</v>
       </c>
       <c r="C295">
-        <v>3.514595288783312</v>
+        <v>3.689769219607116</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -16847,7 +16847,7 @@
         <v>310</v>
       </c>
       <c r="B297">
-        <v>1.271241035312414</v>
+        <v>1.367538895457983</v>
       </c>
       <c r="C297">
         <v>0.2927027717232704</v>
@@ -16900,7 +16900,7 @@
         <v>1.116725314408541</v>
       </c>
       <c r="C298">
-        <v>2.312801327556371</v>
+        <v>2.396551575511694</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -17197,7 +17197,7 @@
         <v>317</v>
       </c>
       <c r="B304">
-        <v>0.4612654782831673</v>
+        <v>0.5450157262384896</v>
       </c>
       <c r="C304">
         <v>1.755128029733897</v>
@@ -17500,7 +17500,7 @@
         <v>1.069284856319428</v>
       </c>
       <c r="C310">
-        <v>0.262245357036591</v>
+        <v>0.3585432171821598</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -17547,10 +17547,10 @@
         <v>324</v>
       </c>
       <c r="B311">
-        <v>12.60438122227788</v>
+        <v>13.32102135941386</v>
       </c>
       <c r="C311">
-        <v>1.087806779891253</v>
+        <v>1.270808976143599</v>
       </c>
       <c r="D311">
         <v>18</v>
@@ -17597,7 +17597,7 @@
         <v>325</v>
       </c>
       <c r="B312">
-        <v>1.755103506147861</v>
+        <v>1.852460578083992</v>
       </c>
       <c r="C312">
         <v>2.170226871967317</v>
@@ -17750,7 +17750,7 @@
         <v>5.019551934599876</v>
       </c>
       <c r="C315">
-        <v>0.7326370701193811</v>
+        <v>0.7625622078776361</v>
       </c>
       <c r="D315">
         <v>5</v>
@@ -17797,7 +17797,7 @@
         <v>329</v>
       </c>
       <c r="B316">
-        <v>0.4258452765643596</v>
+        <v>0.8047564141452316</v>
       </c>
       <c r="C316">
         <v>0.3906826227903364</v>
@@ -17847,10 +17847,10 @@
         <v>330</v>
       </c>
       <c r="B317">
-        <v>2.544028595089912</v>
+        <v>2.58170560002327</v>
       </c>
       <c r="C317">
-        <v>4.573376301676036</v>
+        <v>4.781652208417655</v>
       </c>
       <c r="D317">
         <v>5</v>
@@ -17935,7 +17935,7 @@
         <v>332</v>
       </c>
       <c r="B319">
-        <v>0.7843831479549411</v>
+        <v>0.8681535869836811</v>
       </c>
       <c r="C319">
         <v>0.3096822779625655</v>
@@ -18035,10 +18035,10 @@
         <v>334</v>
       </c>
       <c r="B321">
-        <v>2.430172011256219</v>
+        <v>2.556383877992631</v>
       </c>
       <c r="C321">
-        <v>3.530371591448784</v>
+        <v>3.924241192638875</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -18085,7 +18085,7 @@
         <v>335</v>
       </c>
       <c r="B322">
-        <v>1.49025609344244</v>
+        <v>2.011598452925683</v>
       </c>
       <c r="C322">
         <v>1.728407230228187</v>
@@ -18135,10 +18135,10 @@
         <v>336</v>
       </c>
       <c r="B323">
-        <v>1.405218727886677</v>
+        <v>1.489198286086321</v>
       </c>
       <c r="C323">
-        <v>1.580607891082764</v>
+        <v>1.62450871989131</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -18235,10 +18235,10 @@
         <v>338</v>
       </c>
       <c r="B325">
-        <v>0.3206134513020518</v>
+        <v>0.3657163605093959</v>
       </c>
       <c r="C325">
-        <v>0.5066902413964269</v>
+        <v>0.6402918621897694</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -18285,10 +18285,10 @@
         <v>339</v>
       </c>
       <c r="B326">
-        <v>1.350241430103779</v>
+        <v>1.401456113904714</v>
       </c>
       <c r="C326">
-        <v>0.2779080010950564</v>
+        <v>0.3812032528221604</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -18388,7 +18388,7 @@
         <v>3.877822160720826</v>
       </c>
       <c r="C328">
-        <v>1.324693500995637</v>
+        <v>1.749665003269912</v>
       </c>
       <c r="D328">
         <v>3</v>
@@ -19211,7 +19211,7 @@
         <v>358</v>
       </c>
       <c r="B345">
-        <v>0.5720495060086247</v>
+        <v>0.6535642594099041</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -19511,10 +19511,10 @@
         <v>364</v>
       </c>
       <c r="B351">
-        <v>3.223383460193872</v>
+        <v>3.335234440863132</v>
       </c>
       <c r="C351">
-        <v>4.309699803590774</v>
+        <v>4.722967751324176</v>
       </c>
       <c r="D351">
         <v>6</v>
@@ -19561,10 +19561,10 @@
         <v>365</v>
       </c>
       <c r="B352">
-        <v>2.447037454694509</v>
+        <v>2.60123487189412</v>
       </c>
       <c r="C352">
-        <v>2.046745363622904</v>
+        <v>2.139295004308224</v>
       </c>
       <c r="D352">
         <v>4</v>
@@ -19761,7 +19761,7 @@
         <v>369</v>
       </c>
       <c r="B356">
-        <v>1.229086704552174</v>
+        <v>1.207059748470784</v>
       </c>
       <c r="C356">
         <v>5.317644838243725</v>
@@ -20161,10 +20161,10 @@
         <v>377</v>
       </c>
       <c r="B364">
-        <v>0.1342745013535026</v>
+        <v>0.1764342449605468</v>
       </c>
       <c r="C364">
-        <v>0.5237607322633263</v>
+        <v>0.5777729935944077</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -20211,7 +20211,7 @@
         <v>378</v>
       </c>
       <c r="B365">
-        <v>0.1863994300365448</v>
+        <v>0.2018487341701984</v>
       </c>
       <c r="C365">
         <v>0.7403862476348879</v>
@@ -20814,7 +20814,7 @@
         <v>2.017567399889232</v>
       </c>
       <c r="C377">
-        <v>1.428271554410457</v>
+        <v>1.428514806553721</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -20964,7 +20964,7 @@
         <v>1.084995681419968</v>
       </c>
       <c r="C380">
-        <v>1.134561788290739</v>
+        <v>1.114723935723304</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -21261,7 +21261,7 @@
         <v>399</v>
       </c>
       <c r="B386">
-        <v>4.42617715522647</v>
+        <v>4.406339302659036</v>
       </c>
       <c r="C386">
         <v>1.000765811651945</v>
@@ -21311,7 +21311,7 @@
         <v>400</v>
       </c>
       <c r="B387">
-        <v>3.404609331861139</v>
+        <v>3.404852584004403</v>
       </c>
       <c r="C387">
         <v>5.466272614896298</v>
@@ -21461,7 +21461,7 @@
         <v>403</v>
       </c>
       <c r="B390">
-        <v>0.2331792190670967</v>
+        <v>0.3156944066286087</v>
       </c>
       <c r="C390">
         <v>0.3810025416314602</v>
@@ -21761,10 +21761,10 @@
         <v>409</v>
       </c>
       <c r="B396">
-        <v>1.223860157653689</v>
+        <v>1.269448282197118</v>
       </c>
       <c r="C396">
-        <v>1.698016658425331</v>
+        <v>2.10219413600862</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -22011,7 +22011,7 @@
         <v>414</v>
       </c>
       <c r="B401">
-        <v>0.6708889380097386</v>
+        <v>1.100280337035656</v>
       </c>
       <c r="C401">
         <v>1.817242458462716</v>
@@ -22111,10 +22111,10 @@
         <v>416</v>
       </c>
       <c r="B403">
-        <v>4.285620663315057</v>
+        <v>4.794880393892526</v>
       </c>
       <c r="C403">
-        <v>3.222244832664728</v>
+        <v>3.846453350037336</v>
       </c>
       <c r="D403">
         <v>4</v>
@@ -22161,10 +22161,10 @@
         <v>417</v>
       </c>
       <c r="B404">
-        <v>0.2670381087809801</v>
+        <v>0.3848633188754321</v>
       </c>
       <c r="C404">
-        <v>0.5521426908671859</v>
+        <v>0.5850626304745677</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -22211,10 +22211,10 @@
         <v>418</v>
       </c>
       <c r="B405">
-        <v>3.109028555452826</v>
+        <v>3.229308409616353</v>
       </c>
       <c r="C405">
-        <v>2.486442824825644</v>
+        <v>2.602326748892664</v>
       </c>
       <c r="D405">
         <v>2</v>
@@ -22452,7 +22452,7 @@
         <v>2.559757806360721</v>
       </c>
       <c r="C410">
-        <v>1.664602525532245</v>
+        <v>1.774453483521938</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -22499,7 +22499,7 @@
         <v>424</v>
       </c>
       <c r="B411">
-        <v>1.105170894414186</v>
+        <v>1.264524966478348</v>
       </c>
       <c r="C411">
         <v>0.1725306324660779</v>
@@ -22752,7 +22752,7 @@
         <v>0.4442178085446353</v>
       </c>
       <c r="C416">
-        <v>1.199849296361208</v>
+        <v>1.242009039968253</v>
       </c>
       <c r="D416">
         <v>3</v>
@@ -23102,7 +23102,7 @@
         <v>2.326525969430805</v>
       </c>
       <c r="C423">
-        <v>2.030925065279007</v>
+        <v>2.008898109197617</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -23149,7 +23149,7 @@
         <v>437</v>
       </c>
       <c r="B424">
-        <v>1.98118270933628</v>
+        <v>2.026285618543624</v>
       </c>
       <c r="C424">
         <v>0.443132400512695</v>
@@ -23349,10 +23349,10 @@
         <v>441</v>
       </c>
       <c r="B428">
-        <v>0.4935109317302702</v>
+        <v>0.5545559823513029</v>
       </c>
       <c r="C428">
-        <v>0.986031793057919</v>
+        <v>1.116632111370564</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -23637,7 +23637,7 @@
         <v>447</v>
       </c>
       <c r="B434">
-        <v>1.976978247985244</v>
+        <v>2.106143398210406</v>
       </c>
       <c r="C434">
         <v>1.302982371300459</v>
@@ -23787,7 +23787,7 @@
         <v>450</v>
       </c>
       <c r="B437">
-        <v>0.7056099809706214</v>
+        <v>0.7627079971134666</v>
       </c>
       <c r="C437">
         <v>0.1655937097966671</v>
@@ -23890,7 +23890,7 @@
         <v>0.5564040504395962</v>
       </c>
       <c r="C439">
-        <v>1.194507446140052</v>
+        <v>1.292861975729466</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>453</v>
       </c>
       <c r="B440">
-        <v>7.900169512182474</v>
+        <v>7.929612474441528</v>
       </c>
       <c r="C440">
-        <v>0.9690897054970264</v>
+        <v>1.021861612796783</v>
       </c>
       <c r="D440">
         <v>6</v>
